--- a/out/CE/FigA_6.xlsx
+++ b/out/CE/FigA_6.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B273B3CD-8315-45F7-95E1-161E90599708}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.79234000000000004</v>
+        <v>0.79434000000000005</v>
       </c>
       <c r="B1">
+        <v>0.80479000000000001</v>
+      </c>
+      <c r="C1">
+        <v>0.78966000000000003</v>
+      </c>
+      <c r="D1">
+        <v>0.78295999999999999</v>
+      </c>
+      <c r="E1">
+        <v>0.78817999999999999</v>
+      </c>
+      <c r="F1">
+        <v>0.80208000000000002</v>
+      </c>
+      <c r="G1">
+        <v>0.78659000000000001</v>
+      </c>
+      <c r="H1">
+        <v>0.77225999999999995</v>
+      </c>
+      <c r="I1">
+        <v>0.78761000000000003</v>
+      </c>
+      <c r="J1">
+        <v>0.79937999999999998</v>
+      </c>
+      <c r="K1">
+        <v>0.81347999999999998</v>
+      </c>
+      <c r="L1">
+        <v>0.78295999999999999</v>
+      </c>
+      <c r="M1">
+        <v>0.78995000000000004</v>
+      </c>
+      <c r="N1">
+        <v>0.78012999999999999</v>
+      </c>
+      <c r="O1">
+        <v>0.79166000000000003</v>
+      </c>
+      <c r="P1">
+        <v>0.79290000000000005</v>
+      </c>
+      <c r="Q1">
+        <v>0.81347000000000003</v>
+      </c>
+      <c r="R1">
+        <v>0.78486</v>
+      </c>
+      <c r="S1">
+        <v>0.80006999999999995</v>
+      </c>
+      <c r="T1">
+        <v>0.78376000000000001</v>
+      </c>
+      <c r="U1">
+        <v>0.79146000000000005</v>
+      </c>
+      <c r="V1">
+        <v>0.79483000000000004</v>
+      </c>
+      <c r="W1">
+        <v>0.80142999999999998</v>
+      </c>
+      <c r="X1">
+        <v>0.78346000000000005</v>
+      </c>
+      <c r="Y1">
+        <v>0.79810999999999999</v>
+      </c>
+      <c r="Z1">
+        <v>0.80135999999999996</v>
+      </c>
+      <c r="AA1">
+        <v>0.80244000000000004</v>
+      </c>
+      <c r="AB1">
+        <v>0.79632999999999998</v>
+      </c>
+      <c r="AC1">
+        <v>0.77376999999999996</v>
+      </c>
+      <c r="AD1">
+        <v>0.77297000000000005</v>
+      </c>
+      <c r="AE1">
+        <v>0.76593</v>
+      </c>
+      <c r="AF1">
+        <v>0.80259000000000003</v>
+      </c>
+      <c r="AG1">
+        <v>0.77583999999999997</v>
+      </c>
+      <c r="AH1">
+        <v>0.77742999999999995</v>
+      </c>
+      <c r="AI1">
+        <v>0.78751000000000004</v>
+      </c>
+      <c r="AJ1">
+        <v>0.76026000000000005</v>
+      </c>
+      <c r="AK1">
+        <v>0.79735</v>
+      </c>
+      <c r="AL1">
+        <v>0.78744000000000003</v>
+      </c>
+      <c r="AM1">
+        <v>0.78086999999999995</v>
+      </c>
+      <c r="AN1">
+        <v>0.78808</v>
+      </c>
+      <c r="AO1">
+        <v>0.78161999999999998</v>
+      </c>
+      <c r="AP1">
+        <v>0.78663000000000005</v>
+      </c>
+      <c r="AQ1">
+        <v>0.76783000000000001</v>
+      </c>
+      <c r="AR1">
+        <v>0.77678999999999998</v>
+      </c>
+      <c r="AS1">
+        <v>0.80127000000000004</v>
+      </c>
+      <c r="AT1">
+        <v>0.77176</v>
+      </c>
+      <c r="AU1">
+        <v>0.78925999999999996</v>
+      </c>
+      <c r="AV1">
+        <v>0.78361999999999998</v>
+      </c>
+      <c r="AW1">
+        <v>0.79725999999999997</v>
+      </c>
+      <c r="AX1">
+        <v>0.79898999999999998</v>
+      </c>
+      <c r="AY1">
+        <v>0.79713000000000001</v>
+      </c>
+      <c r="AZ1">
+        <v>0.80252999999999997</v>
+      </c>
+      <c r="BA1">
+        <v>0.76065000000000005</v>
+      </c>
+      <c r="BB1">
+        <v>0.7944</v>
+      </c>
+      <c r="BC1">
+        <v>0.78861000000000003</v>
+      </c>
+      <c r="BD1">
+        <v>0.80874000000000001</v>
+      </c>
+      <c r="BE1">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="BF1">
+        <v>0.80474000000000001</v>
+      </c>
+      <c r="BG1">
+        <v>0.78112000000000004</v>
+      </c>
+      <c r="BH1">
+        <v>0.78659000000000001</v>
+      </c>
+      <c r="BI1">
+        <v>0.77571000000000001</v>
+      </c>
+      <c r="BJ1">
+        <v>0.78405999999999998</v>
+      </c>
+      <c r="BK1">
+        <v>0.78757999999999995</v>
+      </c>
+      <c r="BL1">
+        <v>0.76483999999999996</v>
+      </c>
+      <c r="BM1">
+        <v>0.78629000000000004</v>
+      </c>
+      <c r="BN1">
+        <v>0.79305000000000003</v>
+      </c>
+      <c r="BO1">
+        <v>0.79632000000000003</v>
+      </c>
+      <c r="BP1">
+        <v>0.78215999999999997</v>
+      </c>
+      <c r="BQ1">
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="BR1">
+        <v>0.78075000000000006</v>
+      </c>
+      <c r="BS1">
+        <v>0.78559999999999997</v>
+      </c>
+      <c r="BT1">
+        <v>0.75687000000000004</v>
+      </c>
+      <c r="BU1">
+        <v>0.76895999999999998</v>
+      </c>
+      <c r="BV1">
+        <v>0.79834000000000005</v>
+      </c>
+      <c r="BW1">
+        <v>0.80023999999999995</v>
+      </c>
+      <c r="BX1">
+        <v>0.81401999999999997</v>
+      </c>
+      <c r="BY1">
+        <v>0.81188000000000005</v>
+      </c>
+      <c r="BZ1">
+        <v>0.79866000000000004</v>
+      </c>
+      <c r="CA1">
+        <v>0.79532999999999998</v>
+      </c>
+      <c r="CB1">
+        <v>0.80057</v>
+      </c>
+      <c r="CC1">
+        <v>0.79364999999999997</v>
+      </c>
+      <c r="CD1">
+        <v>0.79190000000000005</v>
+      </c>
+      <c r="CE1">
+        <v>0.78159999999999996</v>
+      </c>
+      <c r="CF1">
+        <v>0.78066999999999998</v>
+      </c>
+      <c r="CG1">
+        <v>0.80352999999999997</v>
+      </c>
+      <c r="CH1">
+        <v>0.79593999999999998</v>
+      </c>
+      <c r="CI1">
+        <v>0.79025000000000001</v>
+      </c>
+      <c r="CJ1">
+        <v>0.79352</v>
+      </c>
+      <c r="CK1">
+        <v>0.79398999999999997</v>
+      </c>
+      <c r="CL1">
+        <v>0.78491999999999995</v>
+      </c>
+      <c r="CM1">
+        <v>0.79664999999999997</v>
+      </c>
+      <c r="CN1">
+        <v>0.75407000000000002</v>
+      </c>
+      <c r="CO1">
+        <v>0.79278999999999999</v>
+      </c>
+      <c r="CP1">
+        <v>0.76488999999999996</v>
+      </c>
+      <c r="CQ1">
+        <v>0.77544000000000002</v>
+      </c>
+      <c r="CR1">
+        <v>0.77829000000000004</v>
+      </c>
+      <c r="CS1">
+        <v>0.78771999999999998</v>
+      </c>
+      <c r="CT1">
+        <v>0.78049999999999997</v>
+      </c>
+      <c r="CU1">
+        <v>0.77325999999999995</v>
+      </c>
+      <c r="CV1">
+        <v>0.79425000000000001</v>
+      </c>
+      <c r="CW1">
+        <v>0.78813449999999974</v>
+      </c>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.77256999999999998</v>
+      </c>
+      <c r="B2">
+        <v>0.78210000000000002</v>
+      </c>
+      <c r="C2">
+        <v>0.79315999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.77698</v>
+      </c>
+      <c r="E2">
+        <v>0.75912000000000002</v>
+      </c>
+      <c r="F2">
+        <v>0.79432000000000003</v>
+      </c>
+      <c r="G2">
+        <v>0.76756999999999997</v>
+      </c>
+      <c r="H2">
+        <v>0.78134000000000003</v>
+      </c>
+      <c r="I2">
+        <v>0.77002999999999999</v>
+      </c>
+      <c r="J2">
+        <v>0.77885000000000004</v>
+      </c>
+      <c r="K2">
+        <v>0.77971000000000001</v>
+      </c>
+      <c r="L2">
+        <v>0.78210000000000002</v>
+      </c>
+      <c r="M2">
+        <v>0.78371000000000002</v>
+      </c>
+      <c r="N2">
+        <v>0.78452999999999995</v>
+      </c>
+      <c r="O2">
+        <v>0.80532999999999999</v>
+      </c>
+      <c r="P2">
+        <v>0.77088000000000001</v>
+      </c>
+      <c r="Q2">
+        <v>0.77695000000000003</v>
+      </c>
+      <c r="R2">
+        <v>0.78273999999999999</v>
+      </c>
+      <c r="S2">
+        <v>0.78271999999999997</v>
+      </c>
+      <c r="T2">
+        <v>0.77942</v>
+      </c>
+      <c r="U2">
+        <v>0.76436000000000004</v>
+      </c>
+      <c r="V2">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="W2">
+        <v>0.78193999999999997</v>
+      </c>
+      <c r="X2">
+        <v>0.74668999999999996</v>
+      </c>
+      <c r="Y2">
+        <v>0.77903</v>
+      </c>
+      <c r="Z2">
+        <v>0.77425999999999995</v>
+      </c>
+      <c r="AA2">
+        <v>0.78302000000000005</v>
+      </c>
+      <c r="AB2">
+        <v>0.75673000000000001</v>
+      </c>
+      <c r="AC2">
+        <v>0.80020000000000002</v>
+      </c>
+      <c r="AD2">
+        <v>0.75185999999999997</v>
+      </c>
+      <c r="AE2">
+        <v>0.77446999999999999</v>
+      </c>
+      <c r="AF2">
+        <v>0.79108999999999996</v>
+      </c>
+      <c r="AG2">
+        <v>0.78602000000000005</v>
+      </c>
+      <c r="AH2">
+        <v>0.77797000000000005</v>
+      </c>
+      <c r="AI2">
+        <v>0.77007000000000003</v>
+      </c>
+      <c r="AJ2">
+        <v>0.78742999999999996</v>
+      </c>
+      <c r="AK2">
+        <v>0.77873000000000003</v>
+      </c>
+      <c r="AL2">
+        <v>0.79176999999999997</v>
+      </c>
+      <c r="AM2">
+        <v>0.78666999999999998</v>
+      </c>
+      <c r="AN2">
+        <v>0.77237999999999996</v>
+      </c>
+      <c r="AO2">
+        <v>0.78169</v>
+      </c>
+      <c r="AP2">
+        <v>0.77808999999999995</v>
+      </c>
+      <c r="AQ2">
+        <v>0.75853000000000004</v>
+      </c>
+      <c r="AR2">
+        <v>0.78147999999999995</v>
+      </c>
+      <c r="AS2">
+        <v>0.80086999999999997</v>
+      </c>
+      <c r="AT2">
+        <v>0.77737000000000001</v>
+      </c>
+      <c r="AU2">
+        <v>0.77176</v>
+      </c>
+      <c r="AV2">
+        <v>0.77117000000000002</v>
+      </c>
+      <c r="AW2">
+        <v>0.79346000000000005</v>
+      </c>
+      <c r="AX2">
+        <v>0.78881999999999997</v>
+      </c>
+      <c r="AY2">
+        <v>0.77966000000000002</v>
+      </c>
+      <c r="AZ2">
+        <v>0.80064000000000002</v>
+      </c>
+      <c r="BA2">
+        <v>0.79142999999999997</v>
+      </c>
+      <c r="BB2">
+        <v>0.78395000000000004</v>
+      </c>
+      <c r="BC2">
+        <v>0.79537999999999998</v>
+      </c>
+      <c r="BD2">
+        <v>0.78081</v>
+      </c>
+      <c r="BE2">
+        <v>0.77144000000000001</v>
+      </c>
+      <c r="BF2">
+        <v>0.78742999999999996</v>
+      </c>
+      <c r="BG2">
+        <v>0.79174999999999995</v>
+      </c>
+      <c r="BH2">
+        <v>0.77515000000000001</v>
+      </c>
+      <c r="BI2">
+        <v>0.76783999999999997</v>
+      </c>
+      <c r="BJ2">
+        <v>0.78088999999999997</v>
+      </c>
+      <c r="BK2">
+        <v>0.78685000000000005</v>
+      </c>
+      <c r="BL2">
+        <v>0.78571000000000002</v>
+      </c>
+      <c r="BM2">
+        <v>0.77610999999999997</v>
+      </c>
+      <c r="BN2">
+        <v>0.80476000000000003</v>
+      </c>
+      <c r="BO2">
+        <v>0.76478000000000002</v>
+      </c>
+      <c r="BP2">
+        <v>0.80374000000000001</v>
+      </c>
+      <c r="BQ2">
+        <v>0.78449000000000002</v>
+      </c>
+      <c r="BR2">
+        <v>0.76112000000000002</v>
+      </c>
+      <c r="BS2">
+        <v>0.77663000000000004</v>
+      </c>
+      <c r="BT2">
+        <v>0.78478000000000003</v>
+      </c>
+      <c r="BU2">
+        <v>0.79490000000000005</v>
+      </c>
+      <c r="BV2">
+        <v>0.78144999999999998</v>
+      </c>
+      <c r="BW2">
+        <v>0.76873000000000002</v>
+      </c>
+      <c r="BX2">
         <v>0.78593999999999997</v>
       </c>
-      <c r="C1">
+      <c r="BY2">
+        <v>0.78246000000000004</v>
+      </c>
+      <c r="BZ2">
+        <v>0.76910999999999996</v>
+      </c>
+      <c r="CA2">
+        <v>0.75505</v>
+      </c>
+      <c r="CB2">
+        <v>0.76490999999999998</v>
+      </c>
+      <c r="CC2">
+        <v>0.79562999999999995</v>
+      </c>
+      <c r="CD2">
+        <v>0.77508999999999995</v>
+      </c>
+      <c r="CE2">
+        <v>0.78205999999999998</v>
+      </c>
+      <c r="CF2">
+        <v>0.77102000000000004</v>
+      </c>
+      <c r="CG2">
+        <v>0.77912000000000003</v>
+      </c>
+      <c r="CH2">
+        <v>0.78288999999999997</v>
+      </c>
+      <c r="CI2">
+        <v>0.77702000000000004</v>
+      </c>
+      <c r="CJ2">
+        <v>0.79237999999999997</v>
+      </c>
+      <c r="CK2">
+        <v>0.77012999999999998</v>
+      </c>
+      <c r="CL2">
+        <v>0.76802999999999999</v>
+      </c>
+      <c r="CM2">
+        <v>0.78742999999999996</v>
+      </c>
+      <c r="CN2">
+        <v>0.79149000000000003</v>
+      </c>
+      <c r="CO2">
+        <v>0.77061000000000002</v>
+      </c>
+      <c r="CP2">
+        <v>0.79378000000000004</v>
+      </c>
+      <c r="CQ2">
+        <v>0.80083000000000004</v>
+      </c>
+      <c r="CR2">
+        <v>0.77564999999999995</v>
+      </c>
+      <c r="CS2">
+        <v>0.80064999999999997</v>
+      </c>
+      <c r="CT2">
+        <v>0.76244000000000001</v>
+      </c>
+      <c r="CU2">
+        <v>0.77420999999999995</v>
+      </c>
+      <c r="CV2">
+        <v>0.80279</v>
+      </c>
+      <c r="CW2">
+        <v>0.78040199999999982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.76456999999999997</v>
+      </c>
+      <c r="B3">
+        <v>0.77646999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.76687000000000005</v>
+      </c>
+      <c r="D3">
+        <v>0.78405000000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.75566</v>
+      </c>
+      <c r="F3">
+        <v>0.75695999999999997</v>
+      </c>
+      <c r="G3">
+        <v>0.78878999999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.75531000000000004</v>
+      </c>
+      <c r="I3">
+        <v>0.74934000000000001</v>
+      </c>
+      <c r="J3">
+        <v>0.76595999999999997</v>
+      </c>
+      <c r="K3">
+        <v>0.77442</v>
+      </c>
+      <c r="L3">
+        <v>0.73770000000000002</v>
+      </c>
+      <c r="M3">
+        <v>0.76466000000000001</v>
+      </c>
+      <c r="N3">
+        <v>0.78188999999999997</v>
+      </c>
+      <c r="O3">
+        <v>0.76510999999999996</v>
+      </c>
+      <c r="P3">
+        <v>0.76822000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>0.78305999999999998</v>
+      </c>
+      <c r="R3">
+        <v>0.76290000000000002</v>
+      </c>
+      <c r="S3">
+        <v>0.75051999999999996</v>
+      </c>
+      <c r="T3">
+        <v>0.75326000000000004</v>
+      </c>
+      <c r="U3">
+        <v>0.75992000000000004</v>
+      </c>
+      <c r="V3">
+        <v>0.76663999999999999</v>
+      </c>
+      <c r="W3">
+        <v>0.77217999999999998</v>
+      </c>
+      <c r="X3">
+        <v>0.76449999999999996</v>
+      </c>
+      <c r="Y3">
+        <v>0.75793999999999995</v>
+      </c>
+      <c r="Z3">
+        <v>0.76844999999999997</v>
+      </c>
+      <c r="AA3">
+        <v>0.77617999999999998</v>
+      </c>
+      <c r="AB3">
+        <v>0.77893999999999997</v>
+      </c>
+      <c r="AC3">
+        <v>0.76409000000000005</v>
+      </c>
+      <c r="AD3">
+        <v>0.77449999999999997</v>
+      </c>
+      <c r="AE3">
+        <v>0.77961000000000003</v>
+      </c>
+      <c r="AF3">
+        <v>0.79442999999999997</v>
+      </c>
+      <c r="AG3">
+        <v>0.76941999999999999</v>
+      </c>
+      <c r="AH3">
+        <v>0.76254</v>
+      </c>
+      <c r="AI3">
+        <v>0.77346999999999999</v>
+      </c>
+      <c r="AJ3">
+        <v>0.73704999999999998</v>
+      </c>
+      <c r="AK3">
+        <v>0.78025999999999995</v>
+      </c>
+      <c r="AL3">
+        <v>0.77939999999999998</v>
+      </c>
+      <c r="AM3">
+        <v>0.77298999999999995</v>
+      </c>
+      <c r="AN3">
+        <v>0.73914000000000002</v>
+      </c>
+      <c r="AO3">
+        <v>0.76751000000000003</v>
+      </c>
+      <c r="AP3">
+        <v>0.79144999999999999</v>
+      </c>
+      <c r="AQ3">
+        <v>0.76034000000000002</v>
+      </c>
+      <c r="AR3">
+        <v>0.77075000000000005</v>
+      </c>
+      <c r="AS3">
+        <v>0.75978999999999997</v>
+      </c>
+      <c r="AT3">
+        <v>0.76295999999999997</v>
+      </c>
+      <c r="AU3">
+        <v>0.78647</v>
+      </c>
+      <c r="AV3">
+        <v>0.77549000000000001</v>
+      </c>
+      <c r="AW3">
+        <v>0.74489000000000005</v>
+      </c>
+      <c r="AX3">
+        <v>0.78415999999999997</v>
+      </c>
+      <c r="AY3">
+        <v>0.76522000000000001</v>
+      </c>
+      <c r="AZ3">
+        <v>0.78408</v>
+      </c>
+      <c r="BA3">
+        <v>0.76805000000000001</v>
+      </c>
+      <c r="BB3">
+        <v>0.76624000000000003</v>
+      </c>
+      <c r="BC3">
+        <v>0.77485999999999999</v>
+      </c>
+      <c r="BD3">
+        <v>0.75960000000000005</v>
+      </c>
+      <c r="BE3">
+        <v>0.76193</v>
+      </c>
+      <c r="BF3">
+        <v>0.76898</v>
+      </c>
+      <c r="BG3">
+        <v>0.75671999999999995</v>
+      </c>
+      <c r="BH3">
+        <v>0.78164</v>
+      </c>
+      <c r="BI3">
+        <v>0.76395999999999997</v>
+      </c>
+      <c r="BJ3">
+        <v>0.75397999999999998</v>
+      </c>
+      <c r="BK3">
+        <v>0.76195999999999997</v>
+      </c>
+      <c r="BL3">
+        <v>0.75271999999999994</v>
+      </c>
+      <c r="BM3">
+        <v>0.75636999999999999</v>
+      </c>
+      <c r="BN3">
+        <v>0.73509000000000002</v>
+      </c>
+      <c r="BO3">
+        <v>0.76485000000000003</v>
+      </c>
+      <c r="BP3">
+        <v>0.75834000000000001</v>
+      </c>
+      <c r="BQ3">
+        <v>0.77854000000000001</v>
+      </c>
+      <c r="BR3">
+        <v>0.75982000000000005</v>
+      </c>
+      <c r="BS3">
+        <v>0.74756999999999996</v>
+      </c>
+      <c r="BT3">
+        <v>0.76724000000000003</v>
+      </c>
+      <c r="BU3">
+        <v>0.77903</v>
+      </c>
+      <c r="BV3">
+        <v>0.75893999999999995</v>
+      </c>
+      <c r="BW3">
+        <v>0.77120999999999995</v>
+      </c>
+      <c r="BX3">
+        <v>0.76837</v>
+      </c>
+      <c r="BY3">
+        <v>0.76322000000000001</v>
+      </c>
+      <c r="BZ3">
+        <v>0.78317000000000003</v>
+      </c>
+      <c r="CA3">
+        <v>0.76885000000000003</v>
+      </c>
+      <c r="CB3">
+        <v>0.78281000000000001</v>
+      </c>
+      <c r="CC3">
+        <v>0.73180999999999996</v>
+      </c>
+      <c r="CD3">
+        <v>0.79408999999999996</v>
+      </c>
+      <c r="CE3">
+        <v>0.74668999999999996</v>
+      </c>
+      <c r="CF3">
+        <v>0.77410000000000001</v>
+      </c>
+      <c r="CG3">
+        <v>0.76622999999999997</v>
+      </c>
+      <c r="CH3">
+        <v>0.76720999999999995</v>
+      </c>
+      <c r="CI3">
+        <v>0.77163999999999999</v>
+      </c>
+      <c r="CJ3">
+        <v>0.78724000000000005</v>
+      </c>
+      <c r="CK3">
+        <v>0.76271</v>
+      </c>
+      <c r="CL3">
+        <v>0.74470000000000003</v>
+      </c>
+      <c r="CM3">
+        <v>0.75555000000000005</v>
+      </c>
+      <c r="CN3">
+        <v>0.76948000000000005</v>
+      </c>
+      <c r="CO3">
+        <v>0.78027999999999997</v>
+      </c>
+      <c r="CP3">
+        <v>0.75482000000000005</v>
+      </c>
+      <c r="CQ3">
+        <v>0.78571999999999997</v>
+      </c>
+      <c r="CR3">
+        <v>0.77359</v>
+      </c>
+      <c r="CS3">
+        <v>0.77505000000000002</v>
+      </c>
+      <c r="CT3">
+        <v>0.75317999999999996</v>
+      </c>
+      <c r="CU3">
+        <v>0.75514000000000003</v>
+      </c>
+      <c r="CV3">
+        <v>0.76312000000000002</v>
+      </c>
+      <c r="CW3">
+        <v>0.76656889999999978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.77578000000000003</v>
+      </c>
+      <c r="B4">
+        <v>0.76578000000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.75678000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.77124999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.76244999999999996</v>
+      </c>
+      <c r="F4">
+        <v>0.75702000000000003</v>
+      </c>
+      <c r="G4">
+        <v>0.73731999999999998</v>
+      </c>
+      <c r="H4">
+        <v>0.76798999999999995</v>
+      </c>
+      <c r="I4">
+        <v>0.76229000000000002</v>
+      </c>
+      <c r="J4">
+        <v>0.74134</v>
+      </c>
+      <c r="K4">
+        <v>0.74497999999999998</v>
+      </c>
+      <c r="L4">
+        <v>0.74773000000000001</v>
+      </c>
+      <c r="M4">
+        <v>0.77114000000000005</v>
+      </c>
+      <c r="N4">
+        <v>0.76212999999999997</v>
+      </c>
+      <c r="O4">
+        <v>0.77722999999999998</v>
+      </c>
+      <c r="P4">
+        <v>0.78081999999999996</v>
+      </c>
+      <c r="Q4">
+        <v>0.77415999999999996</v>
+      </c>
+      <c r="R4">
+        <v>0.75934999999999997</v>
+      </c>
+      <c r="S4">
+        <v>0.75800999999999996</v>
+      </c>
+      <c r="T4">
+        <v>0.78654000000000002</v>
+      </c>
+      <c r="U4">
+        <v>0.76958000000000004</v>
+      </c>
+      <c r="V4">
+        <v>0.76761999999999997</v>
+      </c>
+      <c r="W4">
+        <v>0.78842999999999996</v>
+      </c>
+      <c r="X4">
+        <v>0.75922000000000001</v>
+      </c>
+      <c r="Y4">
+        <v>0.74765000000000004</v>
+      </c>
+      <c r="Z4">
+        <v>0.76395000000000002</v>
+      </c>
+      <c r="AA4">
+        <v>0.74126999999999998</v>
+      </c>
+      <c r="AB4">
+        <v>0.74753999999999998</v>
+      </c>
+      <c r="AC4">
+        <v>0.77761999999999998</v>
+      </c>
+      <c r="AD4">
+        <v>0.76036000000000004</v>
+      </c>
+      <c r="AE4">
+        <v>0.78737000000000001</v>
+      </c>
+      <c r="AF4">
+        <v>0.74773000000000001</v>
+      </c>
+      <c r="AG4">
+        <v>0.77710000000000001</v>
+      </c>
+      <c r="AH4">
+        <v>0.74944</v>
+      </c>
+      <c r="AI4">
+        <v>0.77756000000000003</v>
+      </c>
+      <c r="AJ4">
+        <v>0.75122999999999995</v>
+      </c>
+      <c r="AK4">
+        <v>0.76439999999999997</v>
+      </c>
+      <c r="AL4">
+        <v>0.77195999999999998</v>
+      </c>
+      <c r="AM4">
+        <v>0.76532999999999995</v>
+      </c>
+      <c r="AN4">
+        <v>0.75712999999999997</v>
+      </c>
+      <c r="AO4">
+        <v>0.76195000000000002</v>
+      </c>
+      <c r="AP4">
+        <v>0.77171000000000001</v>
+      </c>
+      <c r="AQ4">
+        <v>0.77137</v>
+      </c>
+      <c r="AR4">
+        <v>0.77449000000000001</v>
+      </c>
+      <c r="AS4">
+        <v>0.78439000000000003</v>
+      </c>
+      <c r="AT4">
+        <v>0.78103999999999996</v>
+      </c>
+      <c r="AU4">
+        <v>0.74065999999999999</v>
+      </c>
+      <c r="AV4">
+        <v>0.77149999999999996</v>
+      </c>
+      <c r="AW4">
+        <v>0.77009000000000005</v>
+      </c>
+      <c r="AX4">
+        <v>0.74775000000000003</v>
+      </c>
+      <c r="AY4">
+        <v>0.75692000000000004</v>
+      </c>
+      <c r="AZ4">
+        <v>0.76683000000000001</v>
+      </c>
+      <c r="BA4">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="BB4">
+        <v>0.75558999999999998</v>
+      </c>
+      <c r="BC4">
+        <v>0.78054000000000001</v>
+      </c>
+      <c r="BD4">
+        <v>0.74863999999999997</v>
+      </c>
+      <c r="BE4">
+        <v>0.78007000000000004</v>
+      </c>
+      <c r="BF4">
+        <v>0.73604000000000003</v>
+      </c>
+      <c r="BG4">
+        <v>0.78022999999999998</v>
+      </c>
+      <c r="BH4">
+        <v>0.76302999999999999</v>
+      </c>
+      <c r="BI4">
+        <v>0.77171000000000001</v>
+      </c>
+      <c r="BJ4">
+        <v>0.76732</v>
+      </c>
+      <c r="BK4">
+        <v>0.76483999999999996</v>
+      </c>
+      <c r="BL4">
+        <v>0.76527000000000001</v>
+      </c>
+      <c r="BM4">
+        <v>0.75348999999999999</v>
+      </c>
+      <c r="BN4">
+        <v>0.74034999999999995</v>
+      </c>
+      <c r="BO4">
+        <v>0.78320000000000001</v>
+      </c>
+      <c r="BP4">
+        <v>0.77342</v>
+      </c>
+      <c r="BQ4">
+        <v>0.76085000000000003</v>
+      </c>
+      <c r="BR4">
+        <v>0.74058999999999997</v>
+      </c>
+      <c r="BS4">
+        <v>0.77461999999999998</v>
+      </c>
+      <c r="BT4">
+        <v>0.74095999999999995</v>
+      </c>
+      <c r="BU4">
+        <v>0.77610000000000001</v>
+      </c>
+      <c r="BV4">
+        <v>0.72796000000000005</v>
+      </c>
+      <c r="BW4">
+        <v>0.78029000000000004</v>
+      </c>
+      <c r="BX4">
+        <v>0.76615</v>
+      </c>
+      <c r="BY4">
+        <v>0.76439999999999997</v>
+      </c>
+      <c r="BZ4">
+        <v>0.78052999999999995</v>
+      </c>
+      <c r="CA4">
+        <v>0.77286999999999995</v>
+      </c>
+      <c r="CB4">
+        <v>0.76405000000000001</v>
+      </c>
+      <c r="CC4">
+        <v>0.76898999999999995</v>
+      </c>
+      <c r="CD4">
+        <v>0.74472000000000005</v>
+      </c>
+      <c r="CE4">
         <v>0.78913999999999995</v>
       </c>
+      <c r="CF4">
+        <v>0.76302000000000003</v>
+      </c>
+      <c r="CG4">
+        <v>0.75026000000000004</v>
+      </c>
+      <c r="CH4">
+        <v>0.77702000000000004</v>
+      </c>
+      <c r="CI4">
+        <v>0.75683999999999996</v>
+      </c>
+      <c r="CJ4">
+        <v>0.75670000000000004</v>
+      </c>
+      <c r="CK4">
+        <v>0.77422999999999997</v>
+      </c>
+      <c r="CL4">
+        <v>0.75531999999999999</v>
+      </c>
+      <c r="CM4">
+        <v>0.77405999999999997</v>
+      </c>
+      <c r="CN4">
+        <v>0.77853000000000006</v>
+      </c>
+      <c r="CO4">
+        <v>0.79017000000000004</v>
+      </c>
+      <c r="CP4">
+        <v>0.77527999999999997</v>
+      </c>
+      <c r="CQ4">
+        <v>0.78195000000000003</v>
+      </c>
+      <c r="CR4">
+        <v>0.78415999999999997</v>
+      </c>
+      <c r="CS4">
+        <v>0.74560999999999999</v>
+      </c>
+      <c r="CT4">
+        <v>0.77048000000000005</v>
+      </c>
+      <c r="CU4">
+        <v>0.76463999999999999</v>
+      </c>
+      <c r="CV4">
+        <v>0.75927</v>
+      </c>
+      <c r="CW4">
+        <v>0.76461780000000001</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.78344999999999998</v>
-      </c>
-      <c r="B2">
-        <v>0.77875000000000005</v>
-      </c>
-      <c r="C2">
-        <v>0.78110000000000002</v>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.75495000000000001</v>
+      </c>
+      <c r="B5">
+        <v>0.75883</v>
+      </c>
+      <c r="C5">
+        <v>0.74473</v>
+      </c>
+      <c r="D5">
+        <v>0.74927999999999995</v>
+      </c>
+      <c r="E5">
+        <v>0.74611000000000005</v>
+      </c>
+      <c r="F5">
+        <v>0.74614999999999998</v>
+      </c>
+      <c r="G5">
+        <v>0.77976000000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.76166999999999996</v>
+      </c>
+      <c r="I5">
+        <v>0.75734000000000001</v>
+      </c>
+      <c r="J5">
+        <v>0.72416999999999998</v>
+      </c>
+      <c r="K5">
+        <v>0.74607000000000001</v>
+      </c>
+      <c r="L5">
+        <v>0.74185999999999996</v>
+      </c>
+      <c r="M5">
+        <v>0.75144999999999995</v>
+      </c>
+      <c r="N5">
+        <v>0.76317000000000002</v>
+      </c>
+      <c r="O5">
+        <v>0.73041</v>
+      </c>
+      <c r="P5">
+        <v>0.75212000000000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.75909000000000004</v>
+      </c>
+      <c r="R5">
+        <v>0.75353000000000003</v>
+      </c>
+      <c r="S5">
+        <v>0.7571</v>
+      </c>
+      <c r="T5">
+        <v>0.74548000000000003</v>
+      </c>
+      <c r="U5">
+        <v>0.74944999999999995</v>
+      </c>
+      <c r="V5">
+        <v>0.76507000000000003</v>
+      </c>
+      <c r="W5">
+        <v>0.77625999999999995</v>
+      </c>
+      <c r="X5">
+        <v>0.73829999999999996</v>
+      </c>
+      <c r="Y5">
+        <v>0.74331000000000003</v>
+      </c>
+      <c r="Z5">
+        <v>0.77292000000000005</v>
+      </c>
+      <c r="AA5">
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="AB5">
+        <v>0.76556000000000002</v>
+      </c>
+      <c r="AC5">
+        <v>0.76171999999999995</v>
+      </c>
+      <c r="AD5">
+        <v>0.76015999999999995</v>
+      </c>
+      <c r="AE5">
+        <v>0.74934999999999996</v>
+      </c>
+      <c r="AF5">
+        <v>0.75046000000000002</v>
+      </c>
+      <c r="AG5">
+        <v>0.74533000000000005</v>
+      </c>
+      <c r="AH5">
+        <v>0.75155000000000005</v>
+      </c>
+      <c r="AI5">
+        <v>0.73634999999999995</v>
+      </c>
+      <c r="AJ5">
+        <v>0.75804000000000005</v>
+      </c>
+      <c r="AK5">
+        <v>0.74324999999999997</v>
+      </c>
+      <c r="AL5">
+        <v>0.76619000000000004</v>
+      </c>
+      <c r="AM5">
+        <v>0.75138000000000005</v>
+      </c>
+      <c r="AN5">
+        <v>0.72153</v>
+      </c>
+      <c r="AO5">
+        <v>0.75753000000000004</v>
+      </c>
+      <c r="AP5">
+        <v>0.73729</v>
+      </c>
+      <c r="AQ5">
+        <v>0.74758999999999998</v>
+      </c>
+      <c r="AR5">
+        <v>0.75756000000000001</v>
+      </c>
+      <c r="AS5">
+        <v>0.74714999999999998</v>
+      </c>
+      <c r="AT5">
+        <v>0.77412000000000003</v>
+      </c>
+      <c r="AU5">
+        <v>0.76463999999999999</v>
+      </c>
+      <c r="AV5">
+        <v>0.77858000000000005</v>
+      </c>
+      <c r="AW5">
+        <v>0.73662000000000005</v>
+      </c>
+      <c r="AX5">
+        <v>0.76553000000000004</v>
+      </c>
+      <c r="AY5">
+        <v>0.72887000000000002</v>
+      </c>
+      <c r="AZ5">
+        <v>0.76293</v>
+      </c>
+      <c r="BA5">
+        <v>0.75570000000000004</v>
+      </c>
+      <c r="BB5">
+        <v>0.73763999999999996</v>
+      </c>
+      <c r="BC5">
+        <v>0.72931000000000001</v>
+      </c>
+      <c r="BD5">
+        <v>0.75844999999999996</v>
+      </c>
+      <c r="BE5">
+        <v>0.74422999999999995</v>
+      </c>
+      <c r="BF5">
+        <v>0.74456999999999995</v>
+      </c>
+      <c r="BG5">
+        <v>0.75727999999999995</v>
+      </c>
+      <c r="BH5">
+        <v>0.73904000000000003</v>
+      </c>
+      <c r="BI5">
+        <v>0.75044</v>
+      </c>
+      <c r="BJ5">
+        <v>0.74263999999999997</v>
+      </c>
+      <c r="BK5">
+        <v>0.76417000000000002</v>
+      </c>
+      <c r="BL5">
+        <v>0.76144000000000001</v>
+      </c>
+      <c r="BM5">
+        <v>0.74007999999999996</v>
+      </c>
+      <c r="BN5">
+        <v>0.75033000000000005</v>
+      </c>
+      <c r="BO5">
+        <v>0.74617999999999995</v>
+      </c>
+      <c r="BP5">
+        <v>0.74553000000000003</v>
+      </c>
+      <c r="BQ5">
+        <v>0.77517000000000003</v>
+      </c>
+      <c r="BR5">
+        <v>0.78124000000000005</v>
+      </c>
+      <c r="BS5">
+        <v>0.75253000000000003</v>
+      </c>
+      <c r="BT5">
+        <v>0.77239999999999998</v>
+      </c>
+      <c r="BU5">
+        <v>0.73619999999999997</v>
+      </c>
+      <c r="BV5">
+        <v>0.748</v>
+      </c>
+      <c r="BW5">
+        <v>0.76963999999999999</v>
+      </c>
+      <c r="BX5">
+        <v>0.75490999999999997</v>
+      </c>
+      <c r="BY5">
+        <v>0.77034999999999998</v>
+      </c>
+      <c r="BZ5">
+        <v>0.75143000000000004</v>
+      </c>
+      <c r="CA5">
+        <v>0.74033000000000004</v>
+      </c>
+      <c r="CB5">
+        <v>0.755</v>
+      </c>
+      <c r="CC5">
+        <v>0.76051000000000002</v>
+      </c>
+      <c r="CD5">
+        <v>0.74973999999999996</v>
+      </c>
+      <c r="CE5">
+        <v>0.75563000000000002</v>
+      </c>
+      <c r="CF5">
+        <v>0.75024000000000002</v>
+      </c>
+      <c r="CG5">
+        <v>0.74917999999999996</v>
+      </c>
+      <c r="CH5">
+        <v>0.76192000000000004</v>
+      </c>
+      <c r="CI5">
+        <v>0.76851000000000003</v>
+      </c>
+      <c r="CJ5">
+        <v>0.75768000000000002</v>
+      </c>
+      <c r="CK5">
+        <v>0.74824000000000002</v>
+      </c>
+      <c r="CL5">
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="CM5">
+        <v>0.74824000000000002</v>
+      </c>
+      <c r="CN5">
+        <v>0.74666999999999994</v>
+      </c>
+      <c r="CO5">
+        <v>0.76792000000000005</v>
+      </c>
+      <c r="CP5">
+        <v>0.73265999999999998</v>
+      </c>
+      <c r="CQ5">
+        <v>0.75373999999999997</v>
+      </c>
+      <c r="CR5">
+        <v>0.74265999999999999</v>
+      </c>
+      <c r="CS5">
+        <v>0.75856999999999997</v>
+      </c>
+      <c r="CT5">
+        <v>0.76105999999999996</v>
+      </c>
+      <c r="CU5">
+        <v>0.73855000000000004</v>
+      </c>
+      <c r="CV5">
+        <v>0.75656000000000001</v>
+      </c>
+      <c r="CW5">
+        <v>0.75261470000000008</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.77076999999999996</v>
-      </c>
-      <c r="B3">
-        <v>0.77449000000000001</v>
-      </c>
-      <c r="C3">
-        <v>0.77262999999999993</v>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.73948999999999998</v>
+      </c>
+      <c r="B6">
+        <v>0.75239999999999996</v>
+      </c>
+      <c r="C6">
+        <v>0.74692000000000003</v>
+      </c>
+      <c r="D6">
+        <v>0.73846999999999996</v>
+      </c>
+      <c r="E6">
+        <v>0.72711999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.75719000000000003</v>
+      </c>
+      <c r="G6">
+        <v>0.75204000000000004</v>
+      </c>
+      <c r="H6">
+        <v>0.73416999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.76263000000000003</v>
+      </c>
+      <c r="J6">
+        <v>0.74568000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.75082000000000004</v>
+      </c>
+      <c r="L6">
+        <v>0.72396000000000005</v>
+      </c>
+      <c r="M6">
+        <v>0.71614999999999995</v>
+      </c>
+      <c r="N6">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.74951000000000001</v>
+      </c>
+      <c r="P6">
+        <v>0.75080000000000002</v>
+      </c>
+      <c r="Q6">
+        <v>0.72996000000000005</v>
+      </c>
+      <c r="R6">
+        <v>0.75475999999999999</v>
+      </c>
+      <c r="S6">
+        <v>0.73829</v>
+      </c>
+      <c r="T6">
+        <v>0.76610999999999996</v>
+      </c>
+      <c r="U6">
+        <v>0.75168000000000001</v>
+      </c>
+      <c r="V6">
+        <v>0.74514999999999998</v>
+      </c>
+      <c r="W6">
+        <v>0.74953999999999998</v>
+      </c>
+      <c r="X6">
+        <v>0.75416000000000005</v>
+      </c>
+      <c r="Y6">
+        <v>0.72509999999999997</v>
+      </c>
+      <c r="Z6">
+        <v>0.74824000000000002</v>
+      </c>
+      <c r="AA6">
+        <v>0.75707999999999998</v>
+      </c>
+      <c r="AB6">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="AC6">
+        <v>0.75538000000000005</v>
+      </c>
+      <c r="AD6">
+        <v>0.75961000000000001</v>
+      </c>
+      <c r="AE6">
+        <v>0.74697000000000002</v>
+      </c>
+      <c r="AF6">
+        <v>0.76612000000000002</v>
+      </c>
+      <c r="AG6">
+        <v>0.73999000000000004</v>
+      </c>
+      <c r="AH6">
+        <v>0.72692999999999997</v>
+      </c>
+      <c r="AI6">
+        <v>0.74739</v>
+      </c>
+      <c r="AJ6">
+        <v>0.72346999999999995</v>
+      </c>
+      <c r="AK6">
+        <v>0.7581</v>
+      </c>
+      <c r="AL6">
+        <v>0.75961000000000001</v>
+      </c>
+      <c r="AM6">
+        <v>0.75744</v>
+      </c>
+      <c r="AN6">
+        <v>0.72563999999999995</v>
+      </c>
+      <c r="AO6">
+        <v>0.73138000000000003</v>
+      </c>
+      <c r="AP6">
+        <v>0.74424000000000001</v>
+      </c>
+      <c r="AQ6">
+        <v>0.73682999999999998</v>
+      </c>
+      <c r="AR6">
+        <v>0.74163000000000001</v>
+      </c>
+      <c r="AS6">
+        <v>0.74500999999999995</v>
+      </c>
+      <c r="AT6">
+        <v>0.72845000000000004</v>
+      </c>
+      <c r="AU6">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="AV6">
+        <v>0.74785000000000001</v>
+      </c>
+      <c r="AW6">
+        <v>0.75975999999999999</v>
+      </c>
+      <c r="AX6">
+        <v>0.76004000000000005</v>
+      </c>
+      <c r="AY6">
+        <v>0.76988000000000001</v>
+      </c>
+      <c r="AZ6">
+        <v>0.76234999999999997</v>
+      </c>
+      <c r="BA6">
+        <v>0.77193999999999996</v>
+      </c>
+      <c r="BB6">
+        <v>0.73477000000000003</v>
+      </c>
+      <c r="BC6">
+        <v>0.73916999999999999</v>
+      </c>
+      <c r="BD6">
+        <v>0.75958000000000003</v>
+      </c>
+      <c r="BE6">
+        <v>0.73321999999999998</v>
+      </c>
+      <c r="BF6">
+        <v>0.75653000000000004</v>
+      </c>
+      <c r="BG6">
+        <v>0.74497000000000002</v>
+      </c>
+      <c r="BH6">
+        <v>0.75317999999999996</v>
+      </c>
+      <c r="BI6">
+        <v>0.74514000000000002</v>
+      </c>
+      <c r="BJ6">
+        <v>0.75927</v>
+      </c>
+      <c r="BK6">
+        <v>0.75202000000000002</v>
+      </c>
+      <c r="BL6">
+        <v>0.72663999999999995</v>
+      </c>
+      <c r="BM6">
+        <v>0.74909000000000003</v>
+      </c>
+      <c r="BN6">
+        <v>0.75202000000000002</v>
+      </c>
+      <c r="BO6">
+        <v>0.77505000000000002</v>
+      </c>
+      <c r="BP6">
+        <v>0.71362999999999999</v>
+      </c>
+      <c r="BQ6">
+        <v>0.75873999999999997</v>
+      </c>
+      <c r="BR6">
+        <v>0.73804000000000003</v>
+      </c>
+      <c r="BS6">
+        <v>0.74031000000000002</v>
+      </c>
+      <c r="BT6">
+        <v>0.76905000000000001</v>
+      </c>
+      <c r="BU6">
+        <v>0.74085000000000001</v>
+      </c>
+      <c r="BV6">
+        <v>0.7399</v>
+      </c>
+      <c r="BW6">
+        <v>0.77588999999999997</v>
+      </c>
+      <c r="BX6">
+        <v>0.74158999999999997</v>
+      </c>
+      <c r="BY6">
+        <v>0.74804999999999999</v>
+      </c>
+      <c r="BZ6">
+        <v>0.77483000000000002</v>
+      </c>
+      <c r="CA6">
+        <v>0.74892999999999998</v>
+      </c>
+      <c r="CB6">
+        <v>0.76392000000000004</v>
+      </c>
+      <c r="CC6">
+        <v>0.75539000000000001</v>
+      </c>
+      <c r="CD6">
+        <v>0.75258000000000003</v>
+      </c>
+      <c r="CE6">
+        <v>0.72919</v>
+      </c>
+      <c r="CF6">
+        <v>0.73026000000000002</v>
+      </c>
+      <c r="CG6">
+        <v>0.74934000000000001</v>
+      </c>
+      <c r="CH6">
+        <v>0.74726000000000004</v>
+      </c>
+      <c r="CI6">
+        <v>0.75244999999999995</v>
+      </c>
+      <c r="CJ6">
+        <v>0.73233000000000004</v>
+      </c>
+      <c r="CK6">
+        <v>0.74739999999999995</v>
+      </c>
+      <c r="CL6">
+        <v>0.73751</v>
+      </c>
+      <c r="CM6">
+        <v>0.77598999999999996</v>
+      </c>
+      <c r="CN6">
+        <v>0.75329999999999997</v>
+      </c>
+      <c r="CO6">
+        <v>0.75705</v>
+      </c>
+      <c r="CP6">
+        <v>0.75173000000000001</v>
+      </c>
+      <c r="CQ6">
+        <v>0.73884000000000005</v>
+      </c>
+      <c r="CR6">
+        <v>0.75792000000000004</v>
+      </c>
+      <c r="CS6">
+        <v>0.72851999999999995</v>
+      </c>
+      <c r="CT6">
+        <v>0.73656999999999995</v>
+      </c>
+      <c r="CU6">
+        <v>0.74770000000000003</v>
+      </c>
+      <c r="CV6">
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="CW6">
+        <v>0.74740740000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.73577000000000004</v>
-      </c>
-      <c r="B4">
-        <v>0.76656999999999997</v>
-      </c>
-      <c r="C4">
-        <v>0.75117</v>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.72385999999999995</v>
+      </c>
+      <c r="B7">
+        <v>0.76224999999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.74370999999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.75800999999999996</v>
+      </c>
+      <c r="E7">
+        <v>0.75822000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.71396999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.74685999999999997</v>
+      </c>
+      <c r="H7">
+        <v>0.74963999999999997</v>
+      </c>
+      <c r="I7">
+        <v>0.74572000000000005</v>
+      </c>
+      <c r="J7">
+        <v>0.73355000000000004</v>
+      </c>
+      <c r="K7">
+        <v>0.73465000000000003</v>
+      </c>
+      <c r="L7">
+        <v>0.74199000000000004</v>
+      </c>
+      <c r="M7">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="N7">
+        <v>0.74858000000000002</v>
+      </c>
+      <c r="O7">
+        <v>0.74722999999999995</v>
+      </c>
+      <c r="P7">
+        <v>0.74444999999999995</v>
+      </c>
+      <c r="Q7">
+        <v>0.74287999999999998</v>
+      </c>
+      <c r="R7">
+        <v>0.75541000000000003</v>
+      </c>
+      <c r="S7">
+        <v>0.73760999999999999</v>
+      </c>
+      <c r="T7">
+        <v>0.74782999999999999</v>
+      </c>
+      <c r="U7">
+        <v>0.72814000000000001</v>
+      </c>
+      <c r="V7">
+        <v>0.73663000000000001</v>
+      </c>
+      <c r="W7">
+        <v>0.75731000000000004</v>
+      </c>
+      <c r="X7">
+        <v>0.72397999999999996</v>
+      </c>
+      <c r="Y7">
+        <v>0.71780999999999995</v>
+      </c>
+      <c r="Z7">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="AA7">
+        <v>0.71531999999999996</v>
+      </c>
+      <c r="AB7">
+        <v>0.75461999999999996</v>
+      </c>
+      <c r="AC7">
+        <v>0.73001000000000005</v>
+      </c>
+      <c r="AD7">
+        <v>0.76544999999999996</v>
+      </c>
+      <c r="AE7">
+        <v>0.77081999999999995</v>
+      </c>
+      <c r="AF7">
+        <v>0.75656999999999996</v>
+      </c>
+      <c r="AG7">
+        <v>0.74468000000000001</v>
+      </c>
+      <c r="AH7">
+        <v>0.76354</v>
+      </c>
+      <c r="AI7">
+        <v>0.73428000000000004</v>
+      </c>
+      <c r="AJ7">
+        <v>0.74858000000000002</v>
+      </c>
+      <c r="AK7">
+        <v>0.73279000000000005</v>
+      </c>
+      <c r="AL7">
+        <v>0.75527999999999995</v>
+      </c>
+      <c r="AM7">
+        <v>0.74885999999999997</v>
+      </c>
+      <c r="AN7">
+        <v>0.72141999999999995</v>
+      </c>
+      <c r="AO7">
+        <v>0.72231999999999996</v>
+      </c>
+      <c r="AP7">
+        <v>0.73453000000000002</v>
+      </c>
+      <c r="AQ7">
+        <v>0.74631000000000003</v>
+      </c>
+      <c r="AR7">
+        <v>0.72236</v>
+      </c>
+      <c r="AS7">
+        <v>0.77046000000000003</v>
+      </c>
+      <c r="AT7">
+        <v>0.72030000000000005</v>
+      </c>
+      <c r="AU7">
+        <v>0.74746999999999997</v>
+      </c>
+      <c r="AV7">
+        <v>0.74756</v>
+      </c>
+      <c r="AW7">
+        <v>0.73358999999999996</v>
+      </c>
+      <c r="AX7">
+        <v>0.74780999999999997</v>
+      </c>
+      <c r="AY7">
+        <v>0.73568999999999996</v>
+      </c>
+      <c r="AZ7">
+        <v>0.75675999999999999</v>
+      </c>
+      <c r="BA7">
+        <v>0.73595999999999995</v>
+      </c>
+      <c r="BB7">
+        <v>0.75363000000000002</v>
+      </c>
+      <c r="BC7">
+        <v>0.73558000000000001</v>
+      </c>
+      <c r="BD7">
+        <v>0.73472999999999999</v>
+      </c>
+      <c r="BE7">
+        <v>0.74392999999999998</v>
+      </c>
+      <c r="BF7">
+        <v>0.73668999999999996</v>
+      </c>
+      <c r="BG7">
+        <v>0.72743000000000002</v>
+      </c>
+      <c r="BH7">
+        <v>0.74673999999999996</v>
+      </c>
+      <c r="BI7">
+        <v>0.75297999999999998</v>
+      </c>
+      <c r="BJ7">
+        <v>0.74428000000000005</v>
+      </c>
+      <c r="BK7">
+        <v>0.75295000000000001</v>
+      </c>
+      <c r="BL7">
+        <v>0.75194000000000005</v>
+      </c>
+      <c r="BM7">
+        <v>0.74897999999999998</v>
+      </c>
+      <c r="BN7">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="BO7">
+        <v>0.74202000000000001</v>
+      </c>
+      <c r="BP7">
+        <v>0.70584999999999998</v>
+      </c>
+      <c r="BQ7">
+        <v>0.74816000000000005</v>
+      </c>
+      <c r="BR7">
+        <v>0.76695000000000002</v>
+      </c>
+      <c r="BS7">
+        <v>0.75492000000000004</v>
+      </c>
+      <c r="BT7">
+        <v>0.75373000000000001</v>
+      </c>
+      <c r="BU7">
+        <v>0.72638999999999998</v>
+      </c>
+      <c r="BV7">
+        <v>0.74785000000000001</v>
+      </c>
+      <c r="BW7">
+        <v>0.74133000000000004</v>
+      </c>
+      <c r="BX7">
+        <v>0.74616000000000005</v>
+      </c>
+      <c r="BY7">
+        <v>0.75102000000000002</v>
+      </c>
+      <c r="BZ7">
+        <v>0.75192000000000003</v>
+      </c>
+      <c r="CA7">
+        <v>0.73119999999999996</v>
+      </c>
+      <c r="CB7">
+        <v>0.76466999999999996</v>
+      </c>
+      <c r="CC7">
+        <v>0.71482999999999997</v>
+      </c>
+      <c r="CD7">
+        <v>0.74973000000000001</v>
+      </c>
+      <c r="CE7">
+        <v>0.74836999999999998</v>
+      </c>
+      <c r="CF7">
+        <v>0.73172999999999999</v>
+      </c>
+      <c r="CG7">
+        <v>0.75868999999999998</v>
+      </c>
+      <c r="CH7">
+        <v>0.73846000000000001</v>
+      </c>
+      <c r="CI7">
+        <v>0.76373999999999997</v>
+      </c>
+      <c r="CJ7">
+        <v>0.73721000000000003</v>
+      </c>
+      <c r="CK7">
+        <v>0.74128000000000005</v>
+      </c>
+      <c r="CL7">
+        <v>0.75402999999999998</v>
+      </c>
+      <c r="CM7">
+        <v>0.74153999999999998</v>
+      </c>
+      <c r="CN7">
+        <v>0.74799000000000004</v>
+      </c>
+      <c r="CO7">
+        <v>0.73633999999999999</v>
+      </c>
+      <c r="CP7">
+        <v>0.74887000000000004</v>
+      </c>
+      <c r="CQ7">
+        <v>0.73821999999999999</v>
+      </c>
+      <c r="CR7">
+        <v>0.75702999999999998</v>
+      </c>
+      <c r="CS7">
+        <v>0.74824999999999997</v>
+      </c>
+      <c r="CT7">
+        <v>0.72206999999999999</v>
+      </c>
+      <c r="CU7">
+        <v>0.74555000000000005</v>
+      </c>
+      <c r="CV7">
+        <v>0.73772000000000004</v>
+      </c>
+      <c r="CW7">
+        <v>0.74285409999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.75805</v>
-      </c>
-      <c r="B5">
-        <v>0.75322</v>
-      </c>
-      <c r="C5">
-        <v>0.75563500000000006</v>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.74021999999999999</v>
+      </c>
+      <c r="B8">
+        <v>0.71601999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.74572000000000005</v>
+      </c>
+      <c r="D8">
+        <v>0.73173999999999995</v>
+      </c>
+      <c r="E8">
+        <v>0.74077000000000004</v>
+      </c>
+      <c r="F8">
+        <v>0.72726999999999997</v>
+      </c>
+      <c r="G8">
+        <v>0.72075</v>
+      </c>
+      <c r="H8">
+        <v>0.7329</v>
+      </c>
+      <c r="I8">
+        <v>0.73926999999999998</v>
+      </c>
+      <c r="J8">
+        <v>0.74177000000000004</v>
+      </c>
+      <c r="K8">
+        <v>0.73311999999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.73089000000000004</v>
+      </c>
+      <c r="M8">
+        <v>0.75202000000000002</v>
+      </c>
+      <c r="N8">
+        <v>0.74617</v>
+      </c>
+      <c r="O8">
+        <v>0.73421999999999998</v>
+      </c>
+      <c r="P8">
+        <v>0.73512999999999995</v>
+      </c>
+      <c r="Q8">
+        <v>0.73587999999999998</v>
+      </c>
+      <c r="R8">
+        <v>0.71880999999999995</v>
+      </c>
+      <c r="S8">
+        <v>0.73165999999999998</v>
+      </c>
+      <c r="T8">
+        <v>0.71953999999999996</v>
+      </c>
+      <c r="U8">
+        <v>0.73272999999999999</v>
+      </c>
+      <c r="V8">
+        <v>0.76676</v>
+      </c>
+      <c r="W8">
+        <v>0.76644999999999996</v>
+      </c>
+      <c r="X8">
+        <v>0.72775999999999996</v>
+      </c>
+      <c r="Y8">
+        <v>0.74838000000000005</v>
+      </c>
+      <c r="Z8">
+        <v>0.73014999999999997</v>
+      </c>
+      <c r="AA8">
+        <v>0.72321000000000002</v>
+      </c>
+      <c r="AB8">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="AC8">
+        <v>0.74600999999999995</v>
+      </c>
+      <c r="AD8">
+        <v>0.72523000000000004</v>
+      </c>
+      <c r="AE8">
+        <v>0.76778999999999997</v>
+      </c>
+      <c r="AF8">
+        <v>0.73250999999999999</v>
+      </c>
+      <c r="AG8">
+        <v>0.71179000000000003</v>
+      </c>
+      <c r="AH8">
+        <v>0.74290999999999996</v>
+      </c>
+      <c r="AI8">
+        <v>0.73814999999999997</v>
+      </c>
+      <c r="AJ8">
+        <v>0.72711000000000003</v>
+      </c>
+      <c r="AK8">
+        <v>0.73436999999999997</v>
+      </c>
+      <c r="AL8">
+        <v>0.72436</v>
+      </c>
+      <c r="AM8">
+        <v>0.75958999999999999</v>
+      </c>
+      <c r="AN8">
+        <v>0.71357000000000004</v>
+      </c>
+      <c r="AO8">
+        <v>0.73643999999999998</v>
+      </c>
+      <c r="AP8">
+        <v>0.75683</v>
+      </c>
+      <c r="AQ8">
+        <v>0.73131000000000002</v>
+      </c>
+      <c r="AR8">
+        <v>0.73838000000000004</v>
+      </c>
+      <c r="AS8">
+        <v>0.74797000000000002</v>
+      </c>
+      <c r="AT8">
+        <v>0.75112000000000001</v>
+      </c>
+      <c r="AU8">
+        <v>0.76078000000000001</v>
+      </c>
+      <c r="AV8">
+        <v>0.73704000000000003</v>
+      </c>
+      <c r="AW8">
+        <v>0.72728999999999999</v>
+      </c>
+      <c r="AX8">
+        <v>0.75046000000000002</v>
+      </c>
+      <c r="AY8">
+        <v>0.74234999999999995</v>
+      </c>
+      <c r="AZ8">
+        <v>0.72997000000000001</v>
+      </c>
+      <c r="BA8">
+        <v>0.74668000000000001</v>
+      </c>
+      <c r="BB8">
+        <v>0.73714999999999997</v>
+      </c>
+      <c r="BC8">
+        <v>0.71416999999999997</v>
+      </c>
+      <c r="BD8">
+        <v>0.75097999999999998</v>
+      </c>
+      <c r="BE8">
+        <v>0.73196000000000006</v>
+      </c>
+      <c r="BF8">
+        <v>0.75134999999999996</v>
+      </c>
+      <c r="BG8">
+        <v>0.72960000000000003</v>
+      </c>
+      <c r="BH8">
+        <v>0.72821999999999998</v>
+      </c>
+      <c r="BI8">
+        <v>0.72075</v>
+      </c>
+      <c r="BJ8">
+        <v>0.72431999999999996</v>
+      </c>
+      <c r="BK8">
+        <v>0.72643999999999997</v>
+      </c>
+      <c r="BL8">
+        <v>0.73619000000000001</v>
+      </c>
+      <c r="BM8">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="BN8">
+        <v>0.73407</v>
+      </c>
+      <c r="BO8">
+        <v>0.73370999999999997</v>
+      </c>
+      <c r="BP8">
+        <v>0.74934999999999996</v>
+      </c>
+      <c r="BQ8">
+        <v>0.75980999999999999</v>
+      </c>
+      <c r="BR8">
+        <v>0.73946999999999996</v>
+      </c>
+      <c r="BS8">
+        <v>0.74241000000000001</v>
+      </c>
+      <c r="BT8">
+        <v>0.73082999999999998</v>
+      </c>
+      <c r="BU8">
+        <v>0.74690000000000001</v>
+      </c>
+      <c r="BV8">
+        <v>0.72848999999999997</v>
+      </c>
+      <c r="BW8">
+        <v>0.74329999999999996</v>
+      </c>
+      <c r="BX8">
+        <v>0.73421999999999998</v>
+      </c>
+      <c r="BY8">
+        <v>0.74948999999999999</v>
+      </c>
+      <c r="BZ8">
+        <v>0.76598999999999995</v>
+      </c>
+      <c r="CA8">
+        <v>0.73146999999999995</v>
+      </c>
+      <c r="CB8">
+        <v>0.70979000000000003</v>
+      </c>
+      <c r="CC8">
+        <v>0.73292999999999997</v>
+      </c>
+      <c r="CD8">
+        <v>0.73726000000000003</v>
+      </c>
+      <c r="CE8">
+        <v>0.74219999999999997</v>
+      </c>
+      <c r="CF8">
+        <v>0.73411999999999999</v>
+      </c>
+      <c r="CG8">
+        <v>0.72789999999999999</v>
+      </c>
+      <c r="CH8">
+        <v>0.74312999999999996</v>
+      </c>
+      <c r="CI8">
+        <v>0.73429999999999995</v>
+      </c>
+      <c r="CJ8">
+        <v>0.74422999999999995</v>
+      </c>
+      <c r="CK8">
+        <v>0.74533000000000005</v>
+      </c>
+      <c r="CL8">
+        <v>0.73994000000000004</v>
+      </c>
+      <c r="CM8">
+        <v>0.74646000000000001</v>
+      </c>
+      <c r="CN8">
+        <v>0.73848000000000003</v>
+      </c>
+      <c r="CO8">
+        <v>0.76132</v>
+      </c>
+      <c r="CP8">
+        <v>0.75529000000000002</v>
+      </c>
+      <c r="CQ8">
+        <v>0.73346</v>
+      </c>
+      <c r="CR8">
+        <v>0.74412</v>
+      </c>
+      <c r="CS8">
+        <v>0.73773</v>
+      </c>
+      <c r="CT8">
+        <v>0.73102999999999996</v>
+      </c>
+      <c r="CU8">
+        <v>0.74292999999999998</v>
+      </c>
+      <c r="CV8">
+        <v>0.75244</v>
+      </c>
+      <c r="CW8">
+        <v>0.73795449999999985</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.75885000000000002</v>
-      </c>
-      <c r="B6">
-        <v>0.73924999999999996</v>
-      </c>
-      <c r="C6">
-        <v>0.74904999999999999</v>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.75600999999999996</v>
+      </c>
+      <c r="B9">
+        <v>0.74597999999999998</v>
+      </c>
+      <c r="C9">
+        <v>0.72499000000000002</v>
+      </c>
+      <c r="D9">
+        <v>0.74007999999999996</v>
+      </c>
+      <c r="E9">
+        <v>0.74048999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.72770000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.73711000000000004</v>
+      </c>
+      <c r="H9">
+        <v>0.72663999999999995</v>
+      </c>
+      <c r="I9">
+        <v>0.73936000000000002</v>
+      </c>
+      <c r="J9">
+        <v>0.73240000000000005</v>
+      </c>
+      <c r="K9">
+        <v>0.72980999999999996</v>
+      </c>
+      <c r="L9">
+        <v>0.72923000000000004</v>
+      </c>
+      <c r="M9">
+        <v>0.74061999999999995</v>
+      </c>
+      <c r="N9">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="O9">
+        <v>0.73609999999999998</v>
+      </c>
+      <c r="P9">
+        <v>0.72167000000000003</v>
+      </c>
+      <c r="Q9">
+        <v>0.73875000000000002</v>
+      </c>
+      <c r="R9">
+        <v>0.73646</v>
+      </c>
+      <c r="S9">
+        <v>0.72445000000000004</v>
+      </c>
+      <c r="T9">
+        <v>0.75751999999999997</v>
+      </c>
+      <c r="U9">
+        <v>0.73751999999999995</v>
+      </c>
+      <c r="V9">
+        <v>0.74888999999999994</v>
+      </c>
+      <c r="W9">
+        <v>0.75219000000000003</v>
+      </c>
+      <c r="X9">
+        <v>0.74431999999999998</v>
+      </c>
+      <c r="Y9">
+        <v>0.75544</v>
+      </c>
+      <c r="Z9">
+        <v>0.71750999999999998</v>
+      </c>
+      <c r="AA9">
+        <v>0.75434999999999997</v>
+      </c>
+      <c r="AB9">
+        <v>0.75219000000000003</v>
+      </c>
+      <c r="AC9">
+        <v>0.74387000000000003</v>
+      </c>
+      <c r="AD9">
+        <v>0.74628000000000005</v>
+      </c>
+      <c r="AE9">
+        <v>0.73001000000000005</v>
+      </c>
+      <c r="AF9">
+        <v>0.73923000000000005</v>
+      </c>
+      <c r="AG9">
+        <v>0.75265000000000004</v>
+      </c>
+      <c r="AH9">
+        <v>0.73784000000000005</v>
+      </c>
+      <c r="AI9">
+        <v>0.75592000000000004</v>
+      </c>
+      <c r="AJ9">
+        <v>0.73418000000000005</v>
+      </c>
+      <c r="AK9">
+        <v>0.72307999999999995</v>
+      </c>
+      <c r="AL9">
+        <v>0.72497</v>
+      </c>
+      <c r="AM9">
+        <v>0.73965999999999998</v>
+      </c>
+      <c r="AN9">
+        <v>0.73019999999999996</v>
+      </c>
+      <c r="AO9">
+        <v>0.75460000000000005</v>
+      </c>
+      <c r="AP9">
+        <v>0.73341999999999996</v>
+      </c>
+      <c r="AQ9">
+        <v>0.74780999999999997</v>
+      </c>
+      <c r="AR9">
+        <v>0.73033000000000003</v>
+      </c>
+      <c r="AS9">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="AT9">
+        <v>0.73302</v>
+      </c>
+      <c r="AU9">
+        <v>0.76141999999999999</v>
+      </c>
+      <c r="AV9">
+        <v>0.75836999999999999</v>
+      </c>
+      <c r="AW9">
+        <v>0.73418000000000005</v>
+      </c>
+      <c r="AX9">
+        <v>0.73780000000000001</v>
+      </c>
+      <c r="AY9">
+        <v>0.71730000000000005</v>
+      </c>
+      <c r="AZ9">
+        <v>0.71267000000000003</v>
+      </c>
+      <c r="BA9">
+        <v>0.73046</v>
+      </c>
+      <c r="BB9">
+        <v>0.74070000000000003</v>
+      </c>
+      <c r="BC9">
+        <v>0.75709000000000004</v>
+      </c>
+      <c r="BD9">
+        <v>0.75056</v>
+      </c>
+      <c r="BE9">
+        <v>0.74980000000000002</v>
+      </c>
+      <c r="BF9">
+        <v>0.75624000000000002</v>
+      </c>
+      <c r="BG9">
+        <v>0.74643000000000004</v>
+      </c>
+      <c r="BH9">
+        <v>0.75441000000000003</v>
+      </c>
+      <c r="BI9">
+        <v>0.75194000000000005</v>
+      </c>
+      <c r="BJ9">
+        <v>0.75409999999999999</v>
+      </c>
+      <c r="BK9">
+        <v>0.76097000000000004</v>
+      </c>
+      <c r="BL9">
+        <v>0.74195999999999995</v>
+      </c>
+      <c r="BM9">
+        <v>0.71667999999999998</v>
+      </c>
+      <c r="BN9">
+        <v>0.74173999999999995</v>
+      </c>
+      <c r="BO9">
+        <v>0.71355000000000002</v>
+      </c>
+      <c r="BP9">
+        <v>0.73255000000000003</v>
+      </c>
+      <c r="BQ9">
+        <v>0.74480999999999997</v>
+      </c>
+      <c r="BR9">
+        <v>0.73250999999999999</v>
+      </c>
+      <c r="BS9">
+        <v>0.74236999999999997</v>
+      </c>
+      <c r="BT9">
+        <v>0.73745000000000005</v>
+      </c>
+      <c r="BU9">
+        <v>0.74944999999999995</v>
+      </c>
+      <c r="BV9">
+        <v>0.73824000000000001</v>
+      </c>
+      <c r="BW9">
+        <v>0.73116999999999999</v>
+      </c>
+      <c r="BX9">
+        <v>0.73634999999999995</v>
+      </c>
+      <c r="BY9">
+        <v>0.72721999999999998</v>
+      </c>
+      <c r="BZ9">
+        <v>0.74719000000000002</v>
+      </c>
+      <c r="CA9">
+        <v>0.73180000000000001</v>
+      </c>
+      <c r="CB9">
+        <v>0.73799000000000003</v>
+      </c>
+      <c r="CC9">
+        <v>0.72475999999999996</v>
+      </c>
+      <c r="CD9">
+        <v>0.73323000000000005</v>
+      </c>
+      <c r="CE9">
+        <v>0.73812999999999995</v>
+      </c>
+      <c r="CF9">
+        <v>0.72321000000000002</v>
+      </c>
+      <c r="CG9">
+        <v>0.72629999999999995</v>
+      </c>
+      <c r="CH9">
+        <v>0.72907</v>
+      </c>
+      <c r="CI9">
+        <v>0.73151999999999995</v>
+      </c>
+      <c r="CJ9">
+        <v>0.72521000000000002</v>
+      </c>
+      <c r="CK9">
+        <v>0.72391000000000005</v>
+      </c>
+      <c r="CL9">
+        <v>0.71838999999999997</v>
+      </c>
+      <c r="CM9">
+        <v>0.73072000000000004</v>
+      </c>
+      <c r="CN9">
+        <v>0.75080000000000002</v>
+      </c>
+      <c r="CO9">
+        <v>0.74814999999999998</v>
+      </c>
+      <c r="CP9">
+        <v>0.72040000000000004</v>
+      </c>
+      <c r="CQ9">
+        <v>0.71953999999999996</v>
+      </c>
+      <c r="CR9">
+        <v>0.74092999999999998</v>
+      </c>
+      <c r="CS9">
+        <v>0.74041000000000001</v>
+      </c>
+      <c r="CT9">
+        <v>0.74717</v>
+      </c>
+      <c r="CU9">
+        <v>0.72069000000000005</v>
+      </c>
+      <c r="CV9">
+        <v>0.73287999999999998</v>
+      </c>
+      <c r="CW9">
+        <v>0.73781239999999992</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.74034</v>
-      </c>
-      <c r="B7">
-        <v>0.74297000000000002</v>
-      </c>
-      <c r="C7">
-        <v>0.74165499999999995</v>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.72763</v>
+      </c>
+      <c r="B10">
+        <v>0.74714999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.71784000000000003</v>
+      </c>
+      <c r="D10">
+        <v>0.72867999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="F10">
+        <v>0.75266</v>
+      </c>
+      <c r="G10">
+        <v>0.7369</v>
+      </c>
+      <c r="H10">
+        <v>0.71194000000000002</v>
+      </c>
+      <c r="I10">
+        <v>0.74202999999999997</v>
+      </c>
+      <c r="J10">
+        <v>0.74480999999999997</v>
+      </c>
+      <c r="K10">
+        <v>0.73314000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.70603000000000005</v>
+      </c>
+      <c r="M10">
+        <v>0.74207999999999996</v>
+      </c>
+      <c r="N10">
+        <v>0.71989999999999998</v>
+      </c>
+      <c r="O10">
+        <v>0.74226999999999999</v>
+      </c>
+      <c r="P10">
+        <v>0.75231000000000003</v>
+      </c>
+      <c r="Q10">
+        <v>0.73302</v>
+      </c>
+      <c r="R10">
+        <v>0.74526999999999999</v>
+      </c>
+      <c r="S10">
+        <v>0.72770999999999997</v>
+      </c>
+      <c r="T10">
+        <v>0.72602999999999995</v>
+      </c>
+      <c r="U10">
+        <v>0.74550000000000005</v>
+      </c>
+      <c r="V10">
+        <v>0.69903000000000004</v>
+      </c>
+      <c r="W10">
+        <v>0.70855000000000001</v>
+      </c>
+      <c r="X10">
+        <v>0.72389000000000003</v>
+      </c>
+      <c r="Y10">
+        <v>0.72392000000000001</v>
+      </c>
+      <c r="Z10">
+        <v>0.72489000000000003</v>
+      </c>
+      <c r="AA10">
+        <v>0.73067000000000004</v>
+      </c>
+      <c r="AB10">
+        <v>0.74650000000000005</v>
+      </c>
+      <c r="AC10">
+        <v>0.74892000000000003</v>
+      </c>
+      <c r="AD10">
+        <v>0.71536</v>
+      </c>
+      <c r="AE10">
+        <v>0.73097000000000001</v>
+      </c>
+      <c r="AF10">
+        <v>0.73599000000000003</v>
+      </c>
+      <c r="AG10">
+        <v>0.73536999999999997</v>
+      </c>
+      <c r="AH10">
+        <v>0.73851</v>
+      </c>
+      <c r="AI10">
+        <v>0.73651999999999995</v>
+      </c>
+      <c r="AJ10">
+        <v>0.74743000000000004</v>
+      </c>
+      <c r="AK10">
+        <v>0.71199000000000001</v>
+      </c>
+      <c r="AL10">
+        <v>0.73068999999999995</v>
+      </c>
+      <c r="AM10">
+        <v>0.71228000000000002</v>
+      </c>
+      <c r="AN10">
+        <v>0.72116000000000002</v>
+      </c>
+      <c r="AO10">
+        <v>0.74177999999999999</v>
+      </c>
+      <c r="AP10">
+        <v>0.70679999999999998</v>
+      </c>
+      <c r="AQ10">
+        <v>0.73609000000000002</v>
+      </c>
+      <c r="AR10">
+        <v>0.71660999999999997</v>
+      </c>
+      <c r="AS10">
+        <v>0.73426000000000002</v>
+      </c>
+      <c r="AT10">
+        <v>0.71004</v>
+      </c>
+      <c r="AU10">
+        <v>0.73616999999999999</v>
+      </c>
+      <c r="AV10">
+        <v>0.72036999999999995</v>
+      </c>
+      <c r="AW10">
+        <v>0.73945000000000005</v>
+      </c>
+      <c r="AX10">
+        <v>0.74222999999999995</v>
+      </c>
+      <c r="AY10">
+        <v>0.71157000000000004</v>
+      </c>
+      <c r="AZ10">
+        <v>0.73409000000000002</v>
+      </c>
+      <c r="BA10">
+        <v>0.74338000000000004</v>
+      </c>
+      <c r="BB10">
+        <v>0.74929000000000001</v>
+      </c>
+      <c r="BC10">
+        <v>0.74760000000000004</v>
+      </c>
+      <c r="BD10">
+        <v>0.74056999999999995</v>
+      </c>
+      <c r="BE10">
+        <v>0.73821999999999999</v>
+      </c>
+      <c r="BF10">
+        <v>0.73514999999999997</v>
+      </c>
+      <c r="BG10">
+        <v>0.71497999999999995</v>
+      </c>
+      <c r="BH10">
+        <v>0.74265999999999999</v>
+      </c>
+      <c r="BI10">
+        <v>0.73382000000000003</v>
+      </c>
+      <c r="BJ10">
+        <v>0.71658999999999995</v>
+      </c>
+      <c r="BK10">
+        <v>0.74221999999999999</v>
+      </c>
+      <c r="BL10">
+        <v>0.71216999999999997</v>
+      </c>
+      <c r="BM10">
+        <v>0.73038999999999998</v>
+      </c>
+      <c r="BN10">
+        <v>0.77120999999999995</v>
+      </c>
+      <c r="BO10">
+        <v>0.71431999999999995</v>
+      </c>
+      <c r="BP10">
+        <v>0.73145000000000004</v>
+      </c>
+      <c r="BQ10">
+        <v>0.74977000000000005</v>
+      </c>
+      <c r="BR10">
+        <v>0.72814999999999996</v>
+      </c>
+      <c r="BS10">
+        <v>0.74380000000000002</v>
+      </c>
+      <c r="BT10">
+        <v>0.71650999999999998</v>
+      </c>
+      <c r="BU10">
+        <v>0.73058000000000001</v>
+      </c>
+      <c r="BV10">
+        <v>0.73267000000000004</v>
+      </c>
+      <c r="BW10">
+        <v>0.71609</v>
+      </c>
+      <c r="BX10">
+        <v>0.74634999999999996</v>
+      </c>
+      <c r="BY10">
+        <v>0.73285999999999996</v>
+      </c>
+      <c r="BZ10">
+        <v>0.72006999999999999</v>
+      </c>
+      <c r="CA10">
+        <v>0.71579000000000004</v>
+      </c>
+      <c r="CB10">
+        <v>0.73002</v>
+      </c>
+      <c r="CC10">
+        <v>0.74682999999999999</v>
+      </c>
+      <c r="CD10">
+        <v>0.75449999999999995</v>
+      </c>
+      <c r="CE10">
+        <v>0.72611000000000003</v>
+      </c>
+      <c r="CF10">
+        <v>0.70579000000000003</v>
+      </c>
+      <c r="CG10">
+        <v>0.75768000000000002</v>
+      </c>
+      <c r="CH10">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="CI10">
+        <v>0.70616999999999996</v>
+      </c>
+      <c r="CJ10">
+        <v>0.72985999999999995</v>
+      </c>
+      <c r="CK10">
+        <v>0.75414000000000003</v>
+      </c>
+      <c r="CL10">
+        <v>0.73784000000000005</v>
+      </c>
+      <c r="CM10">
+        <v>0.75063000000000002</v>
+      </c>
+      <c r="CN10">
+        <v>0.72114999999999996</v>
+      </c>
+      <c r="CO10">
+        <v>0.76022000000000001</v>
+      </c>
+      <c r="CP10">
+        <v>0.72928000000000004</v>
+      </c>
+      <c r="CQ10">
+        <v>0.74741999999999997</v>
+      </c>
+      <c r="CR10">
+        <v>0.72802</v>
+      </c>
+      <c r="CS10">
+        <v>0.73073999999999995</v>
+      </c>
+      <c r="CT10">
+        <v>0.72968999999999995</v>
+      </c>
+      <c r="CU10">
+        <v>0.72174000000000005</v>
+      </c>
+      <c r="CV10">
+        <v>0.74067000000000005</v>
+      </c>
+      <c r="CW10">
+        <v>0.73204160000000018</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.71936</v>
-      </c>
-      <c r="B8">
-        <v>0.73712</v>
-      </c>
-      <c r="C8">
-        <v>0.72824</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.73089000000000004</v>
-      </c>
-      <c r="B9">
-        <v>0.75424000000000002</v>
-      </c>
-      <c r="C9">
-        <v>0.74256500000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.74873000000000001</v>
-      </c>
-      <c r="B10">
-        <v>0.72506999999999999</v>
-      </c>
-      <c r="C10">
-        <v>0.7369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.76261999999999996</v>
+        <v>0.73031000000000001</v>
       </c>
       <c r="B11">
-        <v>0.73175000000000001</v>
+        <v>0.73528000000000004</v>
       </c>
       <c r="C11">
-        <v>0.74718499999999999</v>
+        <v>0.71897</v>
+      </c>
+      <c r="D11">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="E11">
+        <v>0.7157</v>
+      </c>
+      <c r="F11">
+        <v>0.72614000000000001</v>
+      </c>
+      <c r="G11">
+        <v>0.75180000000000002</v>
+      </c>
+      <c r="H11">
+        <v>0.73031999999999997</v>
+      </c>
+      <c r="I11">
+        <v>0.73389000000000004</v>
+      </c>
+      <c r="J11">
+        <v>0.71462000000000003</v>
+      </c>
+      <c r="K11">
+        <v>0.72960000000000003</v>
+      </c>
+      <c r="L11">
+        <v>0.72063999999999995</v>
+      </c>
+      <c r="M11">
+        <v>0.73958999999999997</v>
+      </c>
+      <c r="N11">
+        <v>0.72689000000000004</v>
+      </c>
+      <c r="O11">
+        <v>0.73853999999999997</v>
+      </c>
+      <c r="P11">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>0.73582000000000003</v>
+      </c>
+      <c r="R11">
+        <v>0.73314000000000001</v>
+      </c>
+      <c r="S11">
+        <v>0.71733999999999998</v>
+      </c>
+      <c r="T11">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="U11">
+        <v>0.73463000000000001</v>
+      </c>
+      <c r="V11">
+        <v>0.75283</v>
+      </c>
+      <c r="W11">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="X11">
+        <v>0.72241999999999995</v>
+      </c>
+      <c r="Y11">
+        <v>0.73129999999999995</v>
+      </c>
+      <c r="Z11">
+        <v>0.71352000000000004</v>
+      </c>
+      <c r="AA11">
+        <v>0.72633999999999999</v>
+      </c>
+      <c r="AB11">
+        <v>0.72567000000000004</v>
+      </c>
+      <c r="AC11">
+        <v>0.74622999999999995</v>
+      </c>
+      <c r="AD11">
+        <v>0.72341</v>
+      </c>
+      <c r="AE11">
+        <v>0.72536999999999996</v>
+      </c>
+      <c r="AF11">
+        <v>0.74848999999999999</v>
+      </c>
+      <c r="AG11">
+        <v>0.72674000000000005</v>
+      </c>
+      <c r="AH11">
+        <v>0.73489000000000004</v>
+      </c>
+      <c r="AI11">
+        <v>0.72345000000000004</v>
+      </c>
+      <c r="AJ11">
+        <v>0.70428999999999997</v>
+      </c>
+      <c r="AK11">
+        <v>0.73172000000000004</v>
+      </c>
+      <c r="AL11">
+        <v>0.72962000000000005</v>
+      </c>
+      <c r="AM11">
+        <v>0.74590999999999996</v>
+      </c>
+      <c r="AN11">
+        <v>0.72452000000000005</v>
+      </c>
+      <c r="AO11">
+        <v>0.71367999999999998</v>
+      </c>
+      <c r="AP11">
+        <v>0.72924999999999995</v>
+      </c>
+      <c r="AQ11">
+        <v>0.72184000000000004</v>
+      </c>
+      <c r="AR11">
+        <v>0.73992999999999998</v>
+      </c>
+      <c r="AS11">
+        <v>0.71072999999999997</v>
+      </c>
+      <c r="AT11">
+        <v>0.73329</v>
+      </c>
+      <c r="AU11">
+        <v>0.74711000000000005</v>
+      </c>
+      <c r="AV11">
+        <v>0.76193999999999995</v>
+      </c>
+      <c r="AW11">
+        <v>0.74212999999999996</v>
+      </c>
+      <c r="AX11">
+        <v>0.72421999999999997</v>
+      </c>
+      <c r="AY11">
+        <v>0.73102999999999996</v>
+      </c>
+      <c r="AZ11">
+        <v>0.75197000000000003</v>
+      </c>
+      <c r="BA11">
+        <v>0.72287999999999997</v>
+      </c>
+      <c r="BB11">
+        <v>0.74197999999999997</v>
+      </c>
+      <c r="BC11">
+        <v>0.73065000000000002</v>
+      </c>
+      <c r="BD11">
+        <v>0.72323000000000004</v>
+      </c>
+      <c r="BE11">
+        <v>0.72809999999999997</v>
+      </c>
+      <c r="BF11">
+        <v>0.73080000000000001</v>
+      </c>
+      <c r="BG11">
+        <v>0.72318000000000005</v>
+      </c>
+      <c r="BH11">
+        <v>0.71716000000000002</v>
+      </c>
+      <c r="BI11">
+        <v>0.72126999999999997</v>
+      </c>
+      <c r="BJ11">
+        <v>0.73694999999999999</v>
+      </c>
+      <c r="BK11">
+        <v>0.73187000000000002</v>
+      </c>
+      <c r="BL11">
+        <v>0.74026999999999998</v>
+      </c>
+      <c r="BM11">
+        <v>0.74190999999999996</v>
+      </c>
+      <c r="BN11">
+        <v>0.72319</v>
+      </c>
+      <c r="BO11">
+        <v>0.72065999999999997</v>
+      </c>
+      <c r="BP11">
+        <v>0.69701000000000002</v>
+      </c>
+      <c r="BQ11">
+        <v>0.70887999999999995</v>
+      </c>
+      <c r="BR11">
+        <v>0.72521000000000002</v>
+      </c>
+      <c r="BS11">
+        <v>0.74843999999999999</v>
+      </c>
+      <c r="BT11">
+        <v>0.72792000000000001</v>
+      </c>
+      <c r="BU11">
+        <v>0.70452999999999999</v>
+      </c>
+      <c r="BV11">
+        <v>0.76239999999999997</v>
+      </c>
+      <c r="BW11">
+        <v>0.70599000000000001</v>
+      </c>
+      <c r="BX11">
+        <v>0.72813000000000005</v>
+      </c>
+      <c r="BY11">
+        <v>0.74202999999999997</v>
+      </c>
+      <c r="BZ11">
+        <v>0.72309999999999997</v>
+      </c>
+      <c r="CA11">
+        <v>0.74505999999999994</v>
+      </c>
+      <c r="CB11">
+        <v>0.72894999999999999</v>
+      </c>
+      <c r="CC11">
+        <v>0.70884000000000003</v>
+      </c>
+      <c r="CD11">
+        <v>0.71057000000000003</v>
+      </c>
+      <c r="CE11">
+        <v>0.72491000000000005</v>
+      </c>
+      <c r="CF11">
+        <v>0.74697999999999998</v>
+      </c>
+      <c r="CG11">
+        <v>0.73148000000000002</v>
+      </c>
+      <c r="CH11">
+        <v>0.71279000000000003</v>
+      </c>
+      <c r="CI11">
+        <v>0.74051999999999996</v>
+      </c>
+      <c r="CJ11">
+        <v>0.73404000000000003</v>
+      </c>
+      <c r="CK11">
+        <v>0.73829999999999996</v>
+      </c>
+      <c r="CL11">
+        <v>0.73575999999999997</v>
+      </c>
+      <c r="CM11">
+        <v>0.74492000000000003</v>
+      </c>
+      <c r="CN11">
+        <v>0.73936999999999997</v>
+      </c>
+      <c r="CO11">
+        <v>0.72970000000000002</v>
+      </c>
+      <c r="CP11">
+        <v>0.73323000000000005</v>
+      </c>
+      <c r="CQ11">
+        <v>0.72765000000000002</v>
+      </c>
+      <c r="CR11">
+        <v>0.72836000000000001</v>
+      </c>
+      <c r="CS11">
+        <v>0.72514000000000001</v>
+      </c>
+      <c r="CT11">
+        <v>0.74626000000000003</v>
+      </c>
+      <c r="CU11">
+        <v>0.72779000000000005</v>
+      </c>
+      <c r="CV11">
+        <v>0.74585000000000001</v>
+      </c>
+      <c r="CW11">
+        <v>0.72997169999999956</v>
       </c>
     </row>
   </sheetData>
